--- a/memoria/maptest7.xlsx
+++ b/memoria/maptest7.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diazu\MT-MARL\memoria\resultados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diazu\MT-MARL\memoria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{597F92C5-5263-4642-A69E-26E37913691B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A32BCC-9C5F-45B6-BF9F-7330B9819AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4725" yWindow="1395" windowWidth="21600" windowHeight="10950" xr2:uid="{77BDEF68-C8AA-4190-91B4-454775195A81}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28155" windowHeight="14865" xr2:uid="{77BDEF68-C8AA-4190-91B4-454775195A81}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="30">
   <si>
     <t>costo_por_agente</t>
   </si>
@@ -45,25 +45,13 @@
     <t>valores_ideales</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
     <t>50</t>
-  </si>
-  <si>
-    <t>75</t>
   </si>
   <si>
     <t>100</t>
   </si>
   <si>
-    <t>125</t>
-  </si>
-  <si>
     <t>150</t>
-  </si>
-  <si>
-    <t>175</t>
   </si>
   <si>
     <t>200</t>
@@ -88,6 +76,54 @@
   </si>
   <si>
     <t>Baseline</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>190</t>
   </si>
 </sst>
 </file>
@@ -258,31 +294,67 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$A$3:$A$10</c:f>
+              <c:f>Hoja1!$A$3:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>200</c:v>
                 </c:pt>
               </c:strCache>
@@ -290,33 +362,69 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$3:$B$10</c:f>
+              <c:f>Hoja1!$B$3:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>25.5</c:v>
+                  <c:v>30.835000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.606999999999999</c:v>
+                  <c:v>24.13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.885000000000002</c:v>
+                  <c:v>29.875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.0365</c:v>
+                  <c:v>30.591249999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.612199999999987</c:v>
+                  <c:v>31.91</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36.011166666666668</c:v>
+                  <c:v>26.619166666666661</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>39.571714285714279</c:v>
+                  <c:v>57.341428571428573</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43.056624999999997</c:v>
+                  <c:v>65.791875000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67.290000000000006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70.353999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>66.369090909090914</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>82.610416666666666</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>106.0857692307693</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>90.408928571428575</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>91.795000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160.11296874999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>120.7623529411765</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>137.25416666666669</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>143.82526315789471</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>107.52800000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -356,31 +464,67 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$A$3:$A$10</c:f>
+              <c:f>Hoja1!$A$3:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>200</c:v>
                 </c:pt>
               </c:strCache>
@@ -388,33 +532,69 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$G$3:$G$10</c:f>
+              <c:f>Hoja1!$G$3:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>27.504000000000001</c:v>
+                  <c:v>91.655000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.303999999999991</c:v>
+                  <c:v>70.032499999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.816666666666659</c:v>
+                  <c:v>71.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.503</c:v>
+                  <c:v>88.408749999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.006</c:v>
+                  <c:v>60.405999999999992</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.203666666666663</c:v>
+                  <c:v>55.091666666666683</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.479428571428571</c:v>
+                  <c:v>82.76</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35.204250000000002</c:v>
+                  <c:v>101.674375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>89.603333333333325</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>76.300500000000014</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>106.0206818181818</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>105.92020833333331</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>111.4023076923077</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>90.671428571428578</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>95.617333333333335</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>157.69593750000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>93.101470588235287</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>120.8879166666667</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>115.38552631578951</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>122.51537500000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -455,35 +635,139 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$3:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$3:$D$10</c:f>
+              <c:f>Hoja1!$D$3:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>24.56</c:v>
+                  <c:v>30.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.56</c:v>
+                  <c:v>23.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.266666666666669</c:v>
+                  <c:v>23.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.34</c:v>
+                  <c:v>20.675000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.591999999999999</c:v>
+                  <c:v>22.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.313333333333329</c:v>
+                  <c:v>21.366666666666671</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.382857142857141</c:v>
+                  <c:v>23.714285714285719</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.48</c:v>
+                  <c:v>25.087499999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.62222222222222</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.73</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.618181818181821</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24.583333333333329</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24.838461538461541</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24.25714285714286</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23.32</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26.675000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23.764705882352938</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23.977777777777781</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24.147368421052629</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -866,35 +1150,139 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$3:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$3:$C$10</c:f>
+              <c:f>Hoja1!$C$3:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>26.273</c:v>
+                  <c:v>31.302499999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.583500000000001</c:v>
+                  <c:v>25.1525</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.811666666666671</c:v>
+                  <c:v>36.833333333333329</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.361750000000001</c:v>
+                  <c:v>41.52375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41.786999999999999</c:v>
+                  <c:v>41.94</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50.100666666666669</c:v>
+                  <c:v>32.374583333333327</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>56.444285714285712</c:v>
+                  <c:v>90.386071428571427</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>65.226250000000007</c:v>
+                  <c:v>103.37718750000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>106.1622222222222</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>110.28825000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>103.0465909090909</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>129.36583333333331</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>166.37326923076921</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>141.5994642857143</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>143.30466666666669</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>249.09062499999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>188.90294117647059</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>213.23805555555549</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>224.5667105263158</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>167.322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -932,35 +1320,139 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$3:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$H$3:$H$10</c:f>
+              <c:f>Hoja1!$H$3:$H$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>27.64</c:v>
+                  <c:v>92.655000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.850999999999999</c:v>
+                  <c:v>71.075000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.706</c:v>
+                  <c:v>72.335833333333341</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.714500000000001</c:v>
+                  <c:v>89.434375000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.822200000000002</c:v>
+                  <c:v>61.522500000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35.15</c:v>
+                  <c:v>59.032083333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37.215285714285713</c:v>
+                  <c:v>84.139285714285705</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40.403374999999997</c:v>
+                  <c:v>103.076875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>91.162222222222226</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>77.968000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>116.1409090909091</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110.371875</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>113.9209615384616</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>92.685714285714283</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>104.2848333333333</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>172.82499999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>96.617352941176463</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>136.57458333333341</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>127.7669736842105</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>139.33837500000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -999,35 +1491,139 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$3:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$I$3:$I$10</c:f>
+              <c:f>Hoja1!$I$3:$I$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>24.56</c:v>
+                  <c:v>30.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.56</c:v>
+                  <c:v>23.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.266666666666669</c:v>
+                  <c:v>23.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.34</c:v>
+                  <c:v>20.675000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.591999999999999</c:v>
+                  <c:v>22.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.313333333333329</c:v>
+                  <c:v>21.366666666666671</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.382857142857141</c:v>
+                  <c:v>23.714285714285719</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.48</c:v>
+                  <c:v>25.087499999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.62222222222222</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.73</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.618181818181821</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24.583333333333329</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24.838461538461541</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24.25714285714286</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23.32</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26.675000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23.764705882352938</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23.977777777777781</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24.147368421052629</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1404,31 +2000,67 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$A$3:$A$10</c:f>
+              <c:f>Hoja1!$A$3:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>200</c:v>
                 </c:pt>
               </c:strCache>
@@ -1436,33 +2068,69 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$19:$B$26</c:f>
+              <c:f>Hoja1!$B$27:$B$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>48.225000000000001</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53.6</c:v>
+                  <c:v>50.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>62.725000000000001</c:v>
+                  <c:v>78.375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76.974999999999994</c:v>
+                  <c:v>118.52500000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>112.125</c:v>
+                  <c:v>121.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>135.42500000000001</c:v>
+                  <c:v>100.575</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>149.92500000000001</c:v>
+                  <c:v>275.35000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>175.17500000000001</c:v>
+                  <c:v>318.45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>334.52499999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>344.17500000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>346.22500000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>416.625</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>507.55</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>496.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>503.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>721.65</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>644.27499999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>718.97500000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>761.95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>626.17499999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1502,31 +2170,67 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$A$3:$A$10</c:f>
+              <c:f>Hoja1!$A$3:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>200</c:v>
                 </c:pt>
               </c:strCache>
@@ -1534,33 +2238,69 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$G$19:$G$26</c:f>
+              <c:f>Hoja1!$G$27:$G$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>56.125</c:v>
+                  <c:v>335.15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63.05</c:v>
+                  <c:v>489.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>68.075000000000003</c:v>
+                  <c:v>439.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>71.224999999999994</c:v>
+                  <c:v>506.95</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>78.174999999999997</c:v>
+                  <c:v>437.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>83.325000000000003</c:v>
+                  <c:v>516.85</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>87.6</c:v>
+                  <c:v>544.9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>95.674999999999997</c:v>
+                  <c:v>571.67499999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>601.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>590.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>558.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>588.17499999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>603.32500000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>613.17499999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>619.85</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>581.22500000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>625.92499999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>604.54999999999995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>650.27499999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>590.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1941,31 +2681,67 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$A$3:$A$10</c:f>
+              <c:f>Hoja1!$A$3:$A$23</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>200</c:v>
                 </c:pt>
               </c:strCache>
@@ -1973,33 +2749,69 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$50:$B$57</c:f>
+              <c:f>Hoja1!$B$76:$B$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>74.95</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>124.85</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>149.9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>174.625</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>199.9</c:v>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>159.94999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2039,31 +2851,67 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$A$3:$A$10</c:f>
+              <c:f>Hoja1!$A$3:$A$23</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>200</c:v>
                 </c:pt>
               </c:strCache>
@@ -2071,33 +2919,69 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$G$50:$G$57</c:f>
+              <c:f>Hoja1!$G$76:$G$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>59.575000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>200</c:v>
+                <c:pt idx="10">
+                  <c:v>106.55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>118.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>147.125</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>151.02500000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>174.15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>185.57499999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>189.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2213,12 +3097,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="es-CL"/>
-                  <a:t>Costo</a:t>
-                </a:r>
-                <a:r>
                   <a:rPr lang="es-CL" baseline="0"/>
-                  <a:t> en tiempo</a:t>
+                  <a:t>Cantidad de agentes en destino</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2473,31 +3353,67 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$A$3:$A$10</c:f>
+              <c:f>Hoja1!$A$3:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>200</c:v>
                 </c:pt>
               </c:strCache>
@@ -2505,33 +3421,69 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$33:$B$40</c:f>
+              <c:f>Hoja1!$B$51:$B$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>48.225000000000001</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53.6</c:v>
+                  <c:v>50.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>86.224999999999994</c:v>
+                  <c:v>78.375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76.974999999999994</c:v>
+                  <c:v>118.52500000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>179.27500000000001</c:v>
+                  <c:v>121.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>179.17500000000001</c:v>
+                  <c:v>100.575</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>255.75</c:v>
+                  <c:v>275.35000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>218.375</c:v>
+                  <c:v>318.45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>334.52499999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>344.17500000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>346.22500000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>416.625</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>507.55</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>496.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>503.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>729.82500000000005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>644.27499999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>718.97500000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>761.95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>626.17499999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2571,31 +3523,67 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$A$3:$A$10</c:f>
+              <c:f>Hoja1!$A$3:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>200</c:v>
                 </c:pt>
               </c:strCache>
@@ -2603,33 +3591,69 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$G$33:$G$40</c:f>
+              <c:f>Hoja1!$G$51:$G$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>56.125</c:v>
+                  <c:v>335.15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63.05</c:v>
+                  <c:v>489.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>68.075000000000003</c:v>
+                  <c:v>439.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>71.224999999999994</c:v>
+                  <c:v>506.95</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>78.174999999999997</c:v>
+                  <c:v>437.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>83.325000000000003</c:v>
+                  <c:v>540.82500000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>87.6</c:v>
+                  <c:v>544.9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>95.674999999999997</c:v>
+                  <c:v>571.67499999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>601.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>590.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>629.54999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>612.02499999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>603.32500000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>613.17499999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>667.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>674.42499999999995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>625.92499999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>673.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>695.625</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>707.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5762,13 +6786,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>366432</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>108137</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>366432</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>184337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5800,13 +6824,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>358588</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>358588</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5838,13 +6862,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>145676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>31376</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5986,15 +7010,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>690282</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>163606</xdr:rowOff>
+      <xdr:colOff>756957</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>106456</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>578224</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>40342</xdr:rowOff>
+      <xdr:colOff>644899</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>173692</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6009,7 +7033,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11022106" y="2449606"/>
+          <a:off x="11082057" y="2773456"/>
           <a:ext cx="1411942" cy="638736"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6064,16 +7088,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>125506</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>58270</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390474</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>182961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>58271</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>125506</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>323239</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>59697</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6088,7 +7112,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5930153" y="5011270"/>
+          <a:off x="7667574" y="7612461"/>
           <a:ext cx="1456765" cy="638736"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6143,16 +7167,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>42583</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>143435</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>271183</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>86285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>737348</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>20171</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>203948</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>153521</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6167,7 +7191,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5847230" y="7763435"/>
+          <a:off x="7548283" y="12468785"/>
           <a:ext cx="1456765" cy="638736"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6222,16 +7246,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>127748</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>26893</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>365873</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>84043</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>60513</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>67234</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>298638</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>124384</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6246,7 +7270,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5932395" y="11075893"/>
+          <a:off x="7642973" y="16848043"/>
           <a:ext cx="1456765" cy="802341"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6660,10 +7684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B691F5-4794-4A6A-A54B-EFD8B65B6485}">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="V23" sqref="V23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6674,10 +7698,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -6702,308 +7726,496 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B3">
-        <v>25.5</v>
+        <v>30.835000000000001</v>
       </c>
       <c r="C3">
-        <v>26.273</v>
+        <v>31.302499999999998</v>
       </c>
       <c r="D3">
-        <v>24.56</v>
+        <v>30.2</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G3">
-        <v>27.504000000000001</v>
+        <v>91.655000000000001</v>
       </c>
       <c r="H3">
-        <v>27.64</v>
+        <v>92.655000000000001</v>
       </c>
       <c r="I3">
-        <v>24.56</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B4">
-        <v>25.606999999999999</v>
+        <v>24.13</v>
       </c>
       <c r="C4">
-        <v>27.583500000000001</v>
+        <v>25.1525</v>
       </c>
       <c r="D4">
-        <v>23.56</v>
+        <v>23.2</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G4">
-        <v>28.303999999999991</v>
+        <v>70.032499999999999</v>
       </c>
       <c r="H4">
-        <v>28.850999999999999</v>
+        <v>71.075000000000003</v>
       </c>
       <c r="I4">
-        <v>23.56</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B5">
-        <v>26.885000000000002</v>
+        <v>29.875</v>
       </c>
       <c r="C5">
-        <v>29.811666666666671</v>
+        <v>36.833333333333329</v>
       </c>
       <c r="D5">
-        <v>23.266666666666669</v>
+        <v>23.8</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G5">
-        <v>28.816666666666659</v>
+        <v>71.2</v>
       </c>
       <c r="H5">
-        <v>29.706</v>
+        <v>72.335833333333341</v>
       </c>
       <c r="I5">
-        <v>23.266666666666669</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B6">
-        <v>28.0365</v>
+        <v>30.591249999999999</v>
       </c>
       <c r="C6">
-        <v>33.361750000000001</v>
+        <v>41.52375</v>
       </c>
       <c r="D6">
-        <v>23.34</v>
+        <v>20.675000000000001</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G6">
-        <v>29.503</v>
+        <v>88.408749999999998</v>
       </c>
       <c r="H6">
-        <v>30.714500000000001</v>
+        <v>89.434375000000003</v>
       </c>
       <c r="I6">
-        <v>23.34</v>
+        <v>20.675000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>32.612199999999987</v>
+        <v>31.91</v>
       </c>
       <c r="C7">
-        <v>41.786999999999999</v>
+        <v>41.94</v>
       </c>
       <c r="D7">
-        <v>23.591999999999999</v>
+        <v>22.3</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>31.006</v>
+        <v>60.405999999999992</v>
       </c>
       <c r="H7">
-        <v>32.822200000000002</v>
+        <v>61.522500000000001</v>
       </c>
       <c r="I7">
-        <v>23.591999999999999</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>36.011166666666668</v>
+        <v>26.619166666666661</v>
       </c>
       <c r="C8">
-        <v>50.100666666666669</v>
+        <v>32.374583333333327</v>
       </c>
       <c r="D8">
-        <v>23.313333333333329</v>
+        <v>21.366666666666671</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G8">
-        <v>32.203666666666663</v>
+        <v>55.091666666666683</v>
       </c>
       <c r="H8">
-        <v>35.15</v>
+        <v>59.032083333333333</v>
       </c>
       <c r="I8">
-        <v>23.313333333333329</v>
+        <v>21.366666666666671</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>39.571714285714279</v>
+        <v>57.341428571428573</v>
       </c>
       <c r="C9">
-        <v>56.444285714285712</v>
+        <v>90.386071428571427</v>
       </c>
       <c r="D9">
-        <v>23.382857142857141</v>
+        <v>23.714285714285719</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G9">
-        <v>33.479428571428571</v>
+        <v>82.76</v>
       </c>
       <c r="H9">
-        <v>37.215285714285713</v>
+        <v>84.139285714285705</v>
       </c>
       <c r="I9">
-        <v>23.382857142857141</v>
+        <v>23.714285714285719</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>43.056624999999997</v>
+        <v>65.791875000000005</v>
       </c>
       <c r="C10">
-        <v>65.226250000000007</v>
+        <v>103.37718750000001</v>
       </c>
       <c r="D10">
-        <v>23.48</v>
+        <v>25.087499999999999</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G10">
-        <v>35.204250000000002</v>
+        <v>101.674375</v>
       </c>
       <c r="H10">
-        <v>40.403374999999997</v>
+        <v>103.076875</v>
       </c>
       <c r="I10">
-        <v>23.48</v>
+        <v>25.087499999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>67.290000000000006</v>
+      </c>
+      <c r="C11">
+        <v>106.1622222222222</v>
+      </c>
+      <c r="D11">
+        <v>23.62222222222222</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11">
+        <v>89.603333333333325</v>
+      </c>
+      <c r="H11">
+        <v>91.162222222222226</v>
+      </c>
+      <c r="I11">
+        <v>23.62222222222222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>70.353999999999999</v>
+      </c>
+      <c r="C12">
+        <v>110.28825000000001</v>
+      </c>
+      <c r="D12">
+        <v>24.73</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>76.300500000000014</v>
+      </c>
+      <c r="H12">
+        <v>77.968000000000004</v>
+      </c>
+      <c r="I12">
+        <v>24.73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>66.369090909090914</v>
+      </c>
+      <c r="C13">
+        <v>103.0465909090909</v>
+      </c>
+      <c r="D13">
+        <v>24.618181818181821</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13">
+        <v>106.0206818181818</v>
+      </c>
+      <c r="H13">
+        <v>116.1409090909091</v>
+      </c>
+      <c r="I13">
+        <v>24.618181818181821</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>82.610416666666666</v>
+      </c>
+      <c r="C14">
+        <v>129.36583333333331</v>
+      </c>
+      <c r="D14">
+        <v>24.583333333333329</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14">
+        <v>105.92020833333331</v>
+      </c>
+      <c r="H14">
+        <v>110.371875</v>
+      </c>
+      <c r="I14">
+        <v>24.583333333333329</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>106.0857692307693</v>
+      </c>
+      <c r="C15">
+        <v>166.37326923076921</v>
+      </c>
+      <c r="D15">
+        <v>24.838461538461541</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15">
+        <v>111.4023076923077</v>
+      </c>
+      <c r="H15">
+        <v>113.9209615384616</v>
+      </c>
+      <c r="I15">
+        <v>24.838461538461541</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>90.408928571428575</v>
+      </c>
+      <c r="C16">
+        <v>141.5994642857143</v>
+      </c>
+      <c r="D16">
+        <v>24.25714285714286</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16">
+        <v>90.671428571428578</v>
+      </c>
+      <c r="H16">
+        <v>92.685714285714283</v>
+      </c>
+      <c r="I16">
+        <v>24.25714285714286</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>91.795000000000002</v>
+      </c>
+      <c r="C17">
+        <v>143.30466666666669</v>
+      </c>
+      <c r="D17">
+        <v>23.32</v>
+      </c>
+      <c r="F17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <v>95.617333333333335</v>
+      </c>
+      <c r="H17">
+        <v>104.2848333333333</v>
+      </c>
+      <c r="I17">
+        <v>23.32</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" t="s">
-        <v>13</v>
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>160.11296874999999</v>
+      </c>
+      <c r="C18">
+        <v>249.09062499999999</v>
+      </c>
+      <c r="D18">
+        <v>26.675000000000001</v>
+      </c>
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18">
+        <v>157.69593750000001</v>
+      </c>
+      <c r="H18">
+        <v>172.82499999999999</v>
+      </c>
+      <c r="I18">
+        <v>26.675000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B19">
-        <v>48.225000000000001</v>
+        <v>120.7623529411765</v>
       </c>
       <c r="C19">
-        <v>56</v>
+        <v>188.90294117647059</v>
       </c>
       <c r="D19">
-        <v>1.2707256154432358</v>
+        <v>23.764705882352938</v>
       </c>
       <c r="F19" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="G19">
-        <v>56.125</v>
+        <v>93.101470588235287</v>
       </c>
       <c r="H19">
-        <v>58</v>
+        <v>96.617352941176463</v>
       </c>
       <c r="I19">
-        <v>1.2442173938170624</v>
+        <v>23.764705882352938</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>53.6</v>
+        <v>137.25416666666669</v>
       </c>
       <c r="C20">
-        <v>71</v>
+        <v>213.23805555555549</v>
       </c>
       <c r="D20">
-        <v>6.2421232416624646</v>
+        <v>23.977777777777781</v>
       </c>
       <c r="F20" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="G20">
-        <v>63.05</v>
+        <v>120.8879166666667</v>
       </c>
       <c r="H20">
-        <v>82</v>
+        <v>136.57458333333341</v>
       </c>
       <c r="I20">
-        <v>5.6156831673356926</v>
+        <v>23.977777777777781</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>62.725000000000001</v>
+        <v>143.82526315789471</v>
       </c>
       <c r="C21">
-        <v>101</v>
+        <v>224.5667105263158</v>
       </c>
       <c r="D21">
-        <v>11.243203074952241</v>
+        <v>24.147368421052629</v>
       </c>
       <c r="F21" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="G21">
-        <v>68.075000000000003</v>
+        <v>115.38552631578951</v>
       </c>
       <c r="H21">
-        <v>93</v>
+        <v>127.7669736842105</v>
       </c>
       <c r="I21">
-        <v>9.0678001742429153</v>
+        <v>24.147368421052629</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -7011,585 +8223,1645 @@
         <v>6</v>
       </c>
       <c r="B22">
-        <v>76.974999999999994</v>
+        <v>107.52800000000001</v>
       </c>
       <c r="C22">
-        <v>128</v>
+        <v>167.322</v>
       </c>
       <c r="D22">
-        <v>12.490996757665105</v>
+        <v>22.6</v>
       </c>
       <c r="F22" t="s">
         <v>6</v>
       </c>
       <c r="G22">
-        <v>71.224999999999994</v>
+        <v>122.51537500000001</v>
       </c>
       <c r="H22">
-        <v>90</v>
+        <v>139.33837500000001</v>
       </c>
       <c r="I22">
-        <v>7.8821040403285876</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23">
-        <v>112.125</v>
-      </c>
-      <c r="C23">
-        <v>284</v>
-      </c>
-      <c r="D23">
-        <v>34.206902512317299</v>
-      </c>
-      <c r="F23" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23">
-        <v>78.174999999999997</v>
-      </c>
-      <c r="H23">
-        <v>97</v>
-      </c>
-      <c r="I23">
-        <v>7.7157431468195146</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24">
-        <v>135.42500000000001</v>
-      </c>
-      <c r="C24">
-        <v>220</v>
-      </c>
-      <c r="D24">
-        <v>22.372014913325351</v>
-      </c>
-      <c r="F24" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24">
-        <v>83.325000000000003</v>
-      </c>
-      <c r="H24">
-        <v>113</v>
-      </c>
-      <c r="I24">
-        <v>10.612975850827938</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25">
-        <v>149.92500000000001</v>
-      </c>
-      <c r="C25">
-        <v>236</v>
-      </c>
-      <c r="D25">
-        <v>23.258180253793487</v>
-      </c>
-      <c r="F25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25">
-        <v>87.6</v>
-      </c>
-      <c r="H25">
-        <v>117</v>
-      </c>
-      <c r="I25">
-        <v>10.712561521829116</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26">
-        <v>175.17500000000001</v>
-      </c>
-      <c r="C26">
-        <v>262</v>
-      </c>
-      <c r="D26">
-        <v>30.771188239017082</v>
-      </c>
-      <c r="F26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26">
-        <v>95.674999999999997</v>
-      </c>
-      <c r="H26">
-        <v>126</v>
-      </c>
-      <c r="I26">
-        <v>11.567832277040681</v>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27">
+        <v>48</v>
+      </c>
+      <c r="C27">
+        <v>48</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27">
+        <v>335.15</v>
+      </c>
+      <c r="H27">
+        <v>637</v>
+      </c>
+      <c r="I27">
+        <v>101.30875629758808</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28">
+        <v>50.9</v>
+      </c>
+      <c r="C28">
+        <v>64</v>
+      </c>
+      <c r="D28">
+        <v>5.3722935941307801</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28">
+        <v>489.9</v>
+      </c>
+      <c r="H28">
+        <v>671</v>
+      </c>
+      <c r="I28">
+        <v>103.20400509024181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29">
+        <v>78.375</v>
+      </c>
+      <c r="C29">
+        <v>110</v>
+      </c>
+      <c r="D29">
+        <v>13.951725378090018</v>
+      </c>
+      <c r="F29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29">
+        <v>439.6</v>
+      </c>
+      <c r="H29">
+        <v>704</v>
+      </c>
+      <c r="I29">
+        <v>90.872917744986978</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30">
+        <v>118.52500000000001</v>
+      </c>
+      <c r="C30">
+        <v>208</v>
+      </c>
+      <c r="D30">
+        <v>30.123666051964122</v>
+      </c>
+      <c r="F30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30">
+        <v>506.95</v>
+      </c>
+      <c r="H30">
+        <v>742</v>
+      </c>
+      <c r="I30">
+        <v>83.039672322855353</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>121.4</v>
+      </c>
+      <c r="C31">
+        <v>178</v>
+      </c>
+      <c r="D31">
+        <v>24.370852704377434</v>
+      </c>
+      <c r="F31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>437.4</v>
+      </c>
+      <c r="H31">
+        <v>660</v>
+      </c>
+      <c r="I31">
+        <v>97.230838201857992</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" t="s">
-        <v>12</v>
-      </c>
-      <c r="I32" t="s">
-        <v>13</v>
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32">
+        <v>100.575</v>
+      </c>
+      <c r="C32">
+        <v>167</v>
+      </c>
+      <c r="D32">
+        <v>19.710582215704637</v>
+      </c>
+      <c r="F32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32">
+        <v>516.85</v>
+      </c>
+      <c r="H32">
+        <v>710</v>
+      </c>
+      <c r="I32">
+        <v>118.14409932420745</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B33">
-        <v>48.225000000000001</v>
+        <v>275.35000000000002</v>
       </c>
       <c r="C33">
-        <v>56</v>
+        <v>400</v>
       </c>
       <c r="D33">
-        <v>1.2707256154432358</v>
+        <v>55.236809540424495</v>
       </c>
       <c r="F33" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="G33">
-        <v>56.125</v>
+        <v>544.9</v>
       </c>
       <c r="H33">
-        <v>58</v>
+        <v>709</v>
       </c>
       <c r="I33">
-        <v>1.2442173938170624</v>
+        <v>67.336811283622154</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B34">
-        <v>53.6</v>
+        <v>318.45</v>
       </c>
       <c r="C34">
-        <v>71</v>
+        <v>439</v>
       </c>
       <c r="D34">
-        <v>6.2421232416624646</v>
+        <v>52.229743957309914</v>
       </c>
       <c r="F34" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G34">
-        <v>63.05</v>
+        <v>571.67499999999995</v>
       </c>
       <c r="H34">
-        <v>82</v>
+        <v>737</v>
       </c>
       <c r="I34">
-        <v>5.6156831673356926</v>
+        <v>84.328535639348871</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B35">
-        <v>86.224999999999994</v>
+        <v>334.52499999999998</v>
       </c>
       <c r="C35">
-        <v>1000</v>
+        <v>444</v>
       </c>
       <c r="D35">
-        <v>148.61039883206573</v>
+        <v>48.453513275282106</v>
       </c>
       <c r="F35" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="G35">
-        <v>68.075000000000003</v>
+        <v>601.25</v>
       </c>
       <c r="H35">
-        <v>93</v>
+        <v>749</v>
       </c>
       <c r="I35">
-        <v>9.0678001742429153</v>
+        <v>88.49735618244226</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B36">
-        <v>76.974999999999994</v>
+        <v>344.17500000000001</v>
       </c>
       <c r="C36">
-        <v>128</v>
+        <v>505</v>
       </c>
       <c r="D36">
-        <v>12.490996757665105</v>
+        <v>60.361257527129268</v>
       </c>
       <c r="F36" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G36">
-        <v>71.224999999999994</v>
+        <v>590.9</v>
       </c>
       <c r="H36">
-        <v>90</v>
+        <v>750</v>
       </c>
       <c r="I36">
-        <v>7.8821040403285876</v>
+        <v>82.545651704887561</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B37">
-        <v>179.27500000000001</v>
+        <v>346.22500000000002</v>
       </c>
       <c r="C37">
-        <v>1000</v>
+        <v>456</v>
       </c>
       <c r="D37">
-        <v>239.11160225579465</v>
+        <v>53.134318187314307</v>
       </c>
       <c r="F37" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G37">
-        <v>78.174999999999997</v>
+        <v>558.25</v>
       </c>
       <c r="H37">
-        <v>97</v>
+        <v>775</v>
       </c>
       <c r="I37">
-        <v>7.7157431468195146</v>
+        <v>158.15664905727371</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B38">
-        <v>179.17500000000001</v>
+        <v>416.625</v>
       </c>
       <c r="C38">
-        <v>1000</v>
+        <v>559</v>
       </c>
       <c r="D38">
-        <v>191.99504367267349</v>
+        <v>56.677987179938128</v>
       </c>
       <c r="F38" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="G38">
-        <v>83.325000000000003</v>
+        <v>588.17499999999995</v>
       </c>
       <c r="H38">
-        <v>113</v>
+        <v>742</v>
       </c>
       <c r="I38">
-        <v>10.612975850827938</v>
+        <v>108.77284905852059</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B39">
-        <v>255.75</v>
+        <v>507.55</v>
       </c>
       <c r="C39">
-        <v>1000</v>
+        <v>680</v>
       </c>
       <c r="D39">
-        <v>285.82249736506049</v>
+        <v>70.053807158754097</v>
       </c>
       <c r="F39" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="G39">
-        <v>87.6</v>
+        <v>603.32500000000005</v>
       </c>
       <c r="H39">
-        <v>117</v>
+        <v>716</v>
       </c>
       <c r="I39">
-        <v>10.712561521829116</v>
+        <v>52.707410805750584</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B40">
-        <v>218.375</v>
+        <v>496.2</v>
       </c>
       <c r="C40">
-        <v>1000</v>
+        <v>685</v>
       </c>
       <c r="D40">
-        <v>183.94141869850986</v>
+        <v>72.11038546775147</v>
       </c>
       <c r="F40" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G40">
-        <v>95.674999999999997</v>
+        <v>613.17499999999995</v>
       </c>
       <c r="H40">
-        <v>126</v>
+        <v>763</v>
       </c>
       <c r="I40">
-        <v>11.567832277040681</v>
+        <v>75.438848558252005</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" t="s">
-        <v>15</v>
-      </c>
-      <c r="H49" t="s">
-        <v>12</v>
-      </c>
-      <c r="I49" t="s">
-        <v>13</v>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <v>503.75</v>
+      </c>
+      <c r="C41">
+        <v>634</v>
+      </c>
+      <c r="D41">
+        <v>66.852976843372602</v>
+      </c>
+      <c r="F41" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41">
+        <v>619.85</v>
+      </c>
+      <c r="H41">
+        <v>976</v>
+      </c>
+      <c r="I41">
+        <v>166.07436548665439</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42">
+        <v>721.65</v>
+      </c>
+      <c r="C42">
+        <v>945</v>
+      </c>
+      <c r="D42">
+        <v>85.44290341268713</v>
+      </c>
+      <c r="F42" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42">
+        <v>581.22500000000002</v>
+      </c>
+      <c r="H42">
+        <v>795</v>
+      </c>
+      <c r="I42">
+        <v>185.49179088892177</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43">
+        <v>644.27499999999998</v>
+      </c>
+      <c r="C43">
+        <v>833</v>
+      </c>
+      <c r="D43">
+        <v>72.837010703385673</v>
+      </c>
+      <c r="F43" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43">
+        <v>625.92499999999995</v>
+      </c>
+      <c r="H43">
+        <v>712</v>
+      </c>
+      <c r="I43">
+        <v>55.35683197360418</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44">
+        <v>718.97500000000002</v>
+      </c>
+      <c r="C44">
+        <v>972</v>
+      </c>
+      <c r="D44">
+        <v>105.3306119820485</v>
+      </c>
+      <c r="F44" t="s">
+        <v>28</v>
+      </c>
+      <c r="G44">
+        <v>604.54999999999995</v>
+      </c>
+      <c r="H44">
+        <v>816</v>
+      </c>
+      <c r="I44">
+        <v>165.68149084993297</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45">
+        <v>761.95</v>
+      </c>
+      <c r="C45">
+        <v>984</v>
+      </c>
+      <c r="D45">
+        <v>113.16970465315359</v>
+      </c>
+      <c r="F45" t="s">
+        <v>29</v>
+      </c>
+      <c r="G45">
+        <v>650.27499999999998</v>
+      </c>
+      <c r="H45">
+        <v>886</v>
+      </c>
+      <c r="I45">
+        <v>146.89189946421541</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46">
+        <v>626.17499999999995</v>
+      </c>
+      <c r="C46">
+        <v>827</v>
+      </c>
+      <c r="D46">
+        <v>65.487085240781198</v>
+      </c>
+      <c r="F46" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46">
+        <v>590.5</v>
+      </c>
+      <c r="H46">
+        <v>764</v>
+      </c>
+      <c r="I46">
+        <v>208.5606349758709</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>3</v>
-      </c>
-      <c r="B50">
-        <v>25</v>
-      </c>
-      <c r="C50">
-        <v>25</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="F50" t="s">
-        <v>3</v>
-      </c>
-      <c r="G50">
-        <v>25</v>
-      </c>
-      <c r="H50">
-        <v>25</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" t="s">
+        <v>10</v>
+      </c>
+      <c r="H50" t="s">
+        <v>8</v>
+      </c>
+      <c r="I50" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B51">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C51">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G51">
-        <v>50</v>
+        <v>335.15</v>
       </c>
       <c r="H51">
-        <v>50</v>
+        <v>637</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>101.30875629758808</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B52">
-        <v>74.95</v>
+        <v>50.9</v>
       </c>
       <c r="C52">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D52">
-        <v>0.31622776601683761</v>
+        <v>5.3722935941307801</v>
       </c>
       <c r="F52" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G52">
-        <v>75</v>
+        <v>489.9</v>
       </c>
       <c r="H52">
-        <v>75</v>
+        <v>671</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>103.20400509024181</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B53">
-        <v>100</v>
+        <v>78.375</v>
       </c>
       <c r="C53">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>13.951725378090018</v>
       </c>
       <c r="F53" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G53">
-        <v>100</v>
+        <v>439.6</v>
       </c>
       <c r="H53">
-        <v>100</v>
+        <v>704</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>90.872917744986978</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B54">
-        <v>124.85</v>
+        <v>118.52500000000001</v>
       </c>
       <c r="C54">
-        <v>125</v>
+        <v>208</v>
       </c>
       <c r="D54">
-        <v>0.53349356567383688</v>
+        <v>30.123666051964122</v>
       </c>
       <c r="F54" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G54">
-        <v>125</v>
+        <v>506.95</v>
       </c>
       <c r="H54">
-        <v>125</v>
+        <v>742</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>83.039672322855353</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B55">
-        <v>149.9</v>
+        <v>121.4</v>
       </c>
       <c r="C55">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="D55">
-        <v>0.44144285572630448</v>
+        <v>24.370852704377434</v>
       </c>
       <c r="F55" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G55">
-        <v>150</v>
+        <v>437.4</v>
       </c>
       <c r="H55">
-        <v>150</v>
+        <v>660</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>97.230838201857992</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B56">
-        <v>174.625</v>
+        <v>100.575</v>
       </c>
       <c r="C56">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D56">
-        <v>1.0545992068930676</v>
+        <v>19.710582215704637</v>
       </c>
       <c r="F56" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G56">
-        <v>175</v>
+        <v>540.82500000000005</v>
       </c>
       <c r="H56">
-        <v>175</v>
+        <v>1000</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>116.39585143281198</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57">
+        <v>275.35000000000002</v>
+      </c>
+      <c r="C57">
+        <v>400</v>
+      </c>
+      <c r="D57">
+        <v>55.236809540424495</v>
+      </c>
+      <c r="F57" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57">
+        <v>544.9</v>
+      </c>
+      <c r="H57">
+        <v>709</v>
+      </c>
+      <c r="I57">
+        <v>67.336811283622154</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58">
+        <v>318.45</v>
+      </c>
+      <c r="C58">
+        <v>439</v>
+      </c>
+      <c r="D58">
+        <v>52.229743957309914</v>
+      </c>
+      <c r="F58" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58">
+        <v>571.67499999999995</v>
+      </c>
+      <c r="H58">
+        <v>737</v>
+      </c>
+      <c r="I58">
+        <v>84.328535639348871</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59">
+        <v>334.52499999999998</v>
+      </c>
+      <c r="C59">
+        <v>444</v>
+      </c>
+      <c r="D59">
+        <v>48.453513275282106</v>
+      </c>
+      <c r="F59" t="s">
+        <v>21</v>
+      </c>
+      <c r="G59">
+        <v>601.25</v>
+      </c>
+      <c r="H59">
+        <v>749</v>
+      </c>
+      <c r="I59">
+        <v>88.49735618244226</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60">
+        <v>344.17500000000001</v>
+      </c>
+      <c r="C60">
+        <v>505</v>
+      </c>
+      <c r="D60">
+        <v>60.361257527129268</v>
+      </c>
+      <c r="F60" t="s">
+        <v>4</v>
+      </c>
+      <c r="G60">
+        <v>590.9</v>
+      </c>
+      <c r="H60">
+        <v>750</v>
+      </c>
+      <c r="I60">
+        <v>82.545651704887561</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>22</v>
+      </c>
+      <c r="B61">
+        <v>346.22500000000002</v>
+      </c>
+      <c r="C61">
+        <v>456</v>
+      </c>
+      <c r="D61">
+        <v>53.134318187314307</v>
+      </c>
+      <c r="F61" t="s">
+        <v>22</v>
+      </c>
+      <c r="G61">
+        <v>629.54999999999995</v>
+      </c>
+      <c r="H61">
+        <v>1000</v>
+      </c>
+      <c r="I61">
+        <v>122.00251153362717</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62">
+        <v>416.625</v>
+      </c>
+      <c r="C62">
+        <v>559</v>
+      </c>
+      <c r="D62">
+        <v>56.677987179938128</v>
+      </c>
+      <c r="F62" t="s">
+        <v>23</v>
+      </c>
+      <c r="G62">
+        <v>612.02499999999998</v>
+      </c>
+      <c r="H62">
+        <v>1000</v>
+      </c>
+      <c r="I62">
+        <v>89.775071492806134</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63">
+        <v>507.55</v>
+      </c>
+      <c r="C63">
+        <v>680</v>
+      </c>
+      <c r="D63">
+        <v>70.053807158754097</v>
+      </c>
+      <c r="F63" t="s">
+        <v>24</v>
+      </c>
+      <c r="G63">
+        <v>603.32500000000005</v>
+      </c>
+      <c r="H63">
+        <v>716</v>
+      </c>
+      <c r="I63">
+        <v>52.707410805750584</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>25</v>
+      </c>
+      <c r="B64">
+        <v>496.2</v>
+      </c>
+      <c r="C64">
+        <v>685</v>
+      </c>
+      <c r="D64">
+        <v>72.11038546775147</v>
+      </c>
+      <c r="F64" t="s">
+        <v>25</v>
+      </c>
+      <c r="G64">
+        <v>613.17499999999995</v>
+      </c>
+      <c r="H64">
+        <v>763</v>
+      </c>
+      <c r="I64">
+        <v>75.438848558252005</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65">
+        <v>503.75</v>
+      </c>
+      <c r="C65">
+        <v>634</v>
+      </c>
+      <c r="D65">
+        <v>66.852976843372602</v>
+      </c>
+      <c r="F65" t="s">
+        <v>5</v>
+      </c>
+      <c r="G65">
+        <v>667.2</v>
+      </c>
+      <c r="H65">
+        <v>1000</v>
+      </c>
+      <c r="I65">
+        <v>127.31511481964121</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66">
+        <v>729.82500000000005</v>
+      </c>
+      <c r="C66">
+        <v>1000</v>
+      </c>
+      <c r="D66">
+        <v>95.696873860469594</v>
+      </c>
+      <c r="F66" t="s">
+        <v>26</v>
+      </c>
+      <c r="G66">
+        <v>674.42499999999995</v>
+      </c>
+      <c r="H66">
+        <v>1000</v>
+      </c>
+      <c r="I66">
+        <v>128.28851448480458</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67">
+        <v>644.27499999999998</v>
+      </c>
+      <c r="C67">
+        <v>833</v>
+      </c>
+      <c r="D67">
+        <v>72.837010703385673</v>
+      </c>
+      <c r="F67" t="s">
+        <v>27</v>
+      </c>
+      <c r="G67">
+        <v>625.92499999999995</v>
+      </c>
+      <c r="H67">
+        <v>712</v>
+      </c>
+      <c r="I67">
+        <v>55.35683197360418</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>28</v>
+      </c>
+      <c r="B68">
+        <v>718.97500000000002</v>
+      </c>
+      <c r="C68">
+        <v>972</v>
+      </c>
+      <c r="D68">
+        <v>105.3306119820485</v>
+      </c>
+      <c r="F68" t="s">
+        <v>28</v>
+      </c>
+      <c r="G68">
+        <v>673.1</v>
+      </c>
+      <c r="H68">
+        <v>1000</v>
+      </c>
+      <c r="I68">
+        <v>118.13894470668973</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>29</v>
+      </c>
+      <c r="B69">
+        <v>761.95</v>
+      </c>
+      <c r="C69">
+        <v>984</v>
+      </c>
+      <c r="D69">
+        <v>113.16970465315359</v>
+      </c>
+      <c r="F69" t="s">
+        <v>29</v>
+      </c>
+      <c r="G69">
+        <v>695.625</v>
+      </c>
+      <c r="H69">
+        <v>1000</v>
+      </c>
+      <c r="I69">
+        <v>99.015587350990046</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70">
+        <v>626.17499999999995</v>
+      </c>
+      <c r="C70">
+        <v>827</v>
+      </c>
+      <c r="D70">
+        <v>65.487085240781198</v>
+      </c>
+      <c r="F70" t="s">
+        <v>6</v>
+      </c>
+      <c r="G70">
+        <v>707.3</v>
+      </c>
+      <c r="H70">
+        <v>1000</v>
+      </c>
+      <c r="I70">
+        <v>125.18769497981395</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" t="s">
+        <v>9</v>
+      </c>
+      <c r="G75" t="s">
+        <v>11</v>
+      </c>
+      <c r="H75" t="s">
+        <v>8</v>
+      </c>
+      <c r="I75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76">
         <v>10</v>
       </c>
-      <c r="B57">
-        <v>199.9</v>
-      </c>
-      <c r="C57">
+      <c r="C76">
+        <v>10</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="F76" t="s">
+        <v>14</v>
+      </c>
+      <c r="G76">
+        <v>10</v>
+      </c>
+      <c r="H76">
+        <v>10</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77">
+        <v>20</v>
+      </c>
+      <c r="C77">
+        <v>20</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="F77" t="s">
+        <v>15</v>
+      </c>
+      <c r="G77">
+        <v>20</v>
+      </c>
+      <c r="H77">
+        <v>20</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78">
+        <v>30</v>
+      </c>
+      <c r="C78">
+        <v>30</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="F78" t="s">
+        <v>16</v>
+      </c>
+      <c r="G78">
+        <v>30</v>
+      </c>
+      <c r="H78">
+        <v>30</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>17</v>
+      </c>
+      <c r="B79">
+        <v>40</v>
+      </c>
+      <c r="C79">
+        <v>40</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="F79" t="s">
+        <v>17</v>
+      </c>
+      <c r="G79">
+        <v>40</v>
+      </c>
+      <c r="H79">
+        <v>40</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80">
+        <v>50</v>
+      </c>
+      <c r="C80">
+        <v>50</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="F80" t="s">
+        <v>3</v>
+      </c>
+      <c r="G80">
+        <v>50</v>
+      </c>
+      <c r="H80">
+        <v>50</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>18</v>
+      </c>
+      <c r="B81">
+        <v>60</v>
+      </c>
+      <c r="C81">
+        <v>60</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="F81" t="s">
+        <v>18</v>
+      </c>
+      <c r="G81">
+        <v>59.575000000000003</v>
+      </c>
+      <c r="H81">
+        <v>60</v>
+      </c>
+      <c r="I81">
+        <v>2.6879360111431243</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>19</v>
+      </c>
+      <c r="B82">
+        <v>70</v>
+      </c>
+      <c r="C82">
+        <v>70</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="F82" t="s">
+        <v>19</v>
+      </c>
+      <c r="G82">
+        <v>70</v>
+      </c>
+      <c r="H82">
+        <v>70</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>20</v>
+      </c>
+      <c r="B83">
+        <v>80</v>
+      </c>
+      <c r="C83">
+        <v>80</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="F83" t="s">
+        <v>20</v>
+      </c>
+      <c r="G83">
+        <v>80</v>
+      </c>
+      <c r="H83">
+        <v>80</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>21</v>
+      </c>
+      <c r="B84">
+        <v>90</v>
+      </c>
+      <c r="C84">
+        <v>90</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="F84" t="s">
+        <v>21</v>
+      </c>
+      <c r="G84">
+        <v>90</v>
+      </c>
+      <c r="H84">
+        <v>90</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85">
+        <v>100</v>
+      </c>
+      <c r="C85">
+        <v>100</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="F85" t="s">
+        <v>4</v>
+      </c>
+      <c r="G85">
+        <v>100</v>
+      </c>
+      <c r="H85">
+        <v>100</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>22</v>
+      </c>
+      <c r="B86">
+        <v>110</v>
+      </c>
+      <c r="C86">
+        <v>110</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="F86" t="s">
+        <v>22</v>
+      </c>
+      <c r="G86">
+        <v>106.55</v>
+      </c>
+      <c r="H86">
+        <v>110</v>
+      </c>
+      <c r="I86">
+        <v>12.272441505781199</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>23</v>
+      </c>
+      <c r="B87">
+        <v>120</v>
+      </c>
+      <c r="C87">
+        <v>120</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="F87" t="s">
+        <v>23</v>
+      </c>
+      <c r="G87">
+        <v>118.5</v>
+      </c>
+      <c r="H87">
+        <v>120</v>
+      </c>
+      <c r="I87">
+        <v>9.4868329805051381</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>24</v>
+      </c>
+      <c r="B88">
+        <v>130</v>
+      </c>
+      <c r="C88">
+        <v>130</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="F88" t="s">
+        <v>24</v>
+      </c>
+      <c r="G88">
+        <v>130</v>
+      </c>
+      <c r="H88">
+        <v>130</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>25</v>
+      </c>
+      <c r="B89">
+        <v>140</v>
+      </c>
+      <c r="C89">
+        <v>140</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="F89" t="s">
+        <v>25</v>
+      </c>
+      <c r="G89">
+        <v>140</v>
+      </c>
+      <c r="H89">
+        <v>140</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90">
+        <v>150</v>
+      </c>
+      <c r="C90">
+        <v>150</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="F90" t="s">
+        <v>5</v>
+      </c>
+      <c r="G90">
+        <v>147.125</v>
+      </c>
+      <c r="H90">
+        <v>150</v>
+      </c>
+      <c r="I90">
+        <v>12.912302819503735</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>26</v>
+      </c>
+      <c r="B91">
+        <v>159.94999999999999</v>
+      </c>
+      <c r="C91">
+        <v>160</v>
+      </c>
+      <c r="D91">
+        <v>0.316227766016838</v>
+      </c>
+      <c r="F91" t="s">
+        <v>26</v>
+      </c>
+      <c r="G91">
+        <v>151.02500000000001</v>
+      </c>
+      <c r="H91">
+        <v>160</v>
+      </c>
+      <c r="I91">
+        <v>27.272121108259789</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>27</v>
+      </c>
+      <c r="B92">
+        <v>170</v>
+      </c>
+      <c r="C92">
+        <v>170</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="F92" t="s">
+        <v>27</v>
+      </c>
+      <c r="G92">
+        <v>170</v>
+      </c>
+      <c r="H92">
+        <v>170</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>28</v>
+      </c>
+      <c r="B93">
+        <v>180</v>
+      </c>
+      <c r="C93">
+        <v>180</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="F93" t="s">
+        <v>28</v>
+      </c>
+      <c r="G93">
+        <v>174.15</v>
+      </c>
+      <c r="H93">
+        <v>180</v>
+      </c>
+      <c r="I93">
+        <v>21.015928025410467</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>29</v>
+      </c>
+      <c r="B94">
+        <v>190</v>
+      </c>
+      <c r="C94">
+        <v>190</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="F94" t="s">
+        <v>29</v>
+      </c>
+      <c r="G94">
+        <v>185.57499999999999</v>
+      </c>
+      <c r="H94">
+        <v>190</v>
+      </c>
+      <c r="I94">
+        <v>19.607543681725328</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95">
         <v>200</v>
       </c>
-      <c r="D57">
-        <v>0.44144285572630454</v>
-      </c>
-      <c r="F57" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57">
+      <c r="C95">
         <v>200</v>
       </c>
-      <c r="H57">
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="F95" t="s">
+        <v>6</v>
+      </c>
+      <c r="G95">
+        <v>189.8</v>
+      </c>
+      <c r="H95">
         <v>200</v>
       </c>
-      <c r="I57">
-        <v>0</v>
+      <c r="I95">
+        <v>27.342274960214954</v>
       </c>
     </row>
   </sheetData>
